--- a/aplikasi-android/tes-kepribadian-mbti/tambahan/TEST_KEPRIBADIAN_MBTI.xlsx
+++ b/aplikasi-android/tes-kepribadian-mbti/tambahan/TEST_KEPRIBADIAN_MBTI.xlsx
@@ -1,25 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20402"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Office\2. Faculty\Classes\Ketrampilan INterpersonal\Interpersonal Skill\tool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\zen\aplikasi-android\tes-kepribadian-mbti\tambahan\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DEBDD8A-FF19-4DE5-8F79-80DC9882E4E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Skala MBTI" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="148">
   <si>
     <t>Lebih memilih berkomunikasi dengan menulis</t>
   </si>
@@ -436,12 +438,39 @@
   </si>
   <si>
     <t xml:space="preserve"> (P) PERCEIVING</t>
+  </si>
+  <si>
+    <t>extrovert</t>
+  </si>
+  <si>
+    <t>introvert</t>
+  </si>
+  <si>
+    <t>sensing</t>
+  </si>
+  <si>
+    <t>intuition</t>
+  </si>
+  <si>
+    <t>feeling</t>
+  </si>
+  <si>
+    <t>thinking</t>
+  </si>
+  <si>
+    <t>judging</t>
+  </si>
+  <si>
+    <t>perceiving</t>
+  </si>
+  <si>
+    <t>d34</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -919,6 +948,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -954,6 +1000,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1129,11 +1192,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2138,4 +2201,83 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD3F500-9C1C-4757-8177-9E86E0ADBA4C}">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
 </file>
--- a/aplikasi-android/tes-kepribadian-mbti/tambahan/TEST_KEPRIBADIAN_MBTI.xlsx
+++ b/aplikasi-android/tes-kepribadian-mbti/tambahan/TEST_KEPRIBADIAN_MBTI.xlsx
@@ -8,20 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\zen\aplikasi-android\tes-kepribadian-mbti\tambahan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DEBDD8A-FF19-4DE5-8F79-80DC9882E4E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43AEEE80-92A4-4897-928C-B59B2E674171}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Skala MBTI" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="139">
   <si>
     <t>Lebih memilih berkomunikasi dengan menulis</t>
   </si>
@@ -438,33 +437,6 @@
   </si>
   <si>
     <t xml:space="preserve"> (P) PERCEIVING</t>
-  </si>
-  <si>
-    <t>extrovert</t>
-  </si>
-  <si>
-    <t>introvert</t>
-  </si>
-  <si>
-    <t>sensing</t>
-  </si>
-  <si>
-    <t>intuition</t>
-  </si>
-  <si>
-    <t>feeling</t>
-  </si>
-  <si>
-    <t>thinking</t>
-  </si>
-  <si>
-    <t>judging</t>
-  </si>
-  <si>
-    <t>perceiving</t>
-  </si>
-  <si>
-    <t>d34</t>
   </si>
 </sst>
 </file>
@@ -1195,7 +1167,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
@@ -2201,83 +2173,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD3F500-9C1C-4757-8177-9E86E0ADBA4C}">
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-</worksheet>
 </file>